--- a/topic_identify/cluster_news.xlsx
+++ b/topic_identify/cluster_news.xlsx
@@ -25664,10 +25664,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>人工标注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>中共中央政治局会议</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -34858,6 +34854,10 @@
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -35338,7 +35338,7 @@
   <dimension ref="A1:G588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D607" sqref="D607"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -35877,7 +35877,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1859</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="382.5" x14ac:dyDescent="0.2">
@@ -35900,7 +35900,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
@@ -35923,7 +35923,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="369.75" x14ac:dyDescent="0.2">
@@ -35946,7 +35946,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="369.75" x14ac:dyDescent="0.2">
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="344.25" x14ac:dyDescent="0.2">
@@ -36423,7 +36423,7 @@
         <v>72</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
@@ -39064,7 +39064,7 @@
         <v>379</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="F140" s="7">
         <v>67</v>
@@ -39156,7 +39156,7 @@
         <v>390</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="F144" s="7">
         <v>67</v>
@@ -40858,7 +40858,7 @@
         <v>604</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="F218" s="7">
         <v>121</v>
@@ -42222,7 +42222,7 @@
         <v>745</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="F278" s="7">
         <v>157</v>
@@ -42245,7 +42245,7 @@
         <v>747</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F279" s="7">
         <v>158</v>
@@ -42812,7 +42812,7 @@
         <v>814</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F304" s="7">
         <v>181</v>
@@ -44192,7 +44192,7 @@
         <v>982</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F364" s="7">
         <v>44</v>
@@ -44830,7 +44830,7 @@
         <v>1058</v>
       </c>
       <c r="E392" s="8" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F392" s="7">
         <v>249</v>
@@ -44876,7 +44876,7 @@
         <v>1061</v>
       </c>
       <c r="E394" s="8" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="F394" s="7">
         <v>249</v>
@@ -46167,7 +46167,7 @@
         <v>1170</v>
       </c>
       <c r="E451" s="8" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="F451" s="11">
         <v>283</v>
@@ -48403,7 +48403,7 @@
         <v>1392</v>
       </c>
       <c r="E549" s="8" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="F549" s="7">
         <v>343</v>
@@ -48725,7 +48725,7 @@
         <v>1433</v>
       </c>
       <c r="E563" s="8" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F563" s="7">
         <v>343</v>
@@ -49047,7 +49047,7 @@
         <v>1475</v>
       </c>
       <c r="E577" s="8" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F577" s="7">
         <v>369</v>
@@ -49184,7 +49184,7 @@
         <v>1485</v>
       </c>
       <c r="E584" s="8" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="F584" s="7"/>
       <c r="G584" s="9" t="s">
